--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v006_for_review.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v006_for_review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb.sharepoint.com/teams/RDSatelliteProject/Shared Documents/General/RD-ED-ISD High-level Planning/Operator Notification Materials for Review/spreadsheets/xl_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{C5E60E65-7AEE-469C-951B-8E8C06427DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8B8C4A-29BF-430C-B40F-2442B08AB4DD}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{C5E60E65-7AEE-469C-951B-8E8C06427DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB6A153-263E-440B-A6E2-2BF3FF32F189}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bXlFldn66gpv20RAskSe0yVBSEYJ2rAuebyag0cpHkWqIp7RKJhGdYkxXbu5SKwn19gdQ5Y/Dhw9zeCtd5Zyww==" workbookSaltValue="3rYmLsfur3ZHHQ6Nt2g5QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3347" yWindow="773" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
@@ -486,9 +486,6 @@
     </r>
   </si>
   <si>
-    <t>Digester component (other)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -548,9 +545,6 @@
     </r>
   </si>
   <si>
-    <t>Venting-emergency/temporary</t>
-  </si>
-  <si>
     <r>
       <t>Q15.</t>
     </r>
@@ -584,9 +578,6 @@
       </rPr>
       <t xml:space="preserve">  Was the emission source able to be repaired?</t>
     </r>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <r>
@@ -1174,6 +1165,9 @@
     <t>Biogas moving/handling equipment</t>
   </si>
   <si>
+    <t>Digester component (other)</t>
+  </si>
+  <si>
     <t>Digester cover</t>
   </si>
   <si>
@@ -1216,10 +1210,16 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Venting-emergency/temporary</t>
+  </si>
+  <si>
     <t>Venting-intentional/routine</t>
   </si>
   <si>
     <t>Table 4.  Able to be Repaired Options</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -1793,19 +1793,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2101,11 +2095,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2116,12 +2110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2129,8 +2123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2139,28 +2133,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2169,120 +2163,76 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -2296,6 +2246,46 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2304,20 +2294,6 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{34B4562B-54D1-406A-9AEB-82C17D409F56}"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2563,6 +2539,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3255,25 +3245,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88E4CF48-AAEC-4756-B8D6-56F7F8A93943}" name="_issue_tracking_Table_01" displayName="_issue_tracking_Table_01" ref="B9:C13" totalsRowShown="0">
   <autoFilter ref="B9:C13" xr:uid="{24D72A52-95E4-464B-93BB-49FD17A99B8E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D71228F0-7A4D-4616-97FA-0D527922E50D}" name="Code" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7E7BC38A-4F45-41D4-A34B-67ADAFBE8125}" name="Description" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D71228F0-7A4D-4616-97FA-0D527922E50D}" name="Code" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7E7BC38A-4F45-41D4-A34B-67ADAFBE8125}" name="Description" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE64B9BE-CE69-4FB3-8E34-6D366DC757D7}" name="_issue_tracking_Table_02" displayName="_issue_tracking_Table_02" ref="B18:G118" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE64B9BE-CE69-4FB3-8E34-6D366DC757D7}" name="_issue_tracking_Table_02" displayName="_issue_tracking_Table_02" ref="B18:G118" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="B18:G118" xr:uid="{6B7A3421-D3A9-46B3-AA8A-01814CFA791D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B04DED2A-6BB2-48AB-9068-6D50ACDCA8B5}" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{528AAF34-79F5-4001-8388-15EE72397566}" name="Comment" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{576C1CDD-B32D-452E-A686-0A9E8287AE64}" name="Received" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{1E703319-29F7-467F-B650-6D98BD796EF9}" name="Commenter" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{CE5B06B8-50D2-4760-AD2A-CE34D9D20702}" name="Status" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{B04DED2A-6BB2-48AB-9068-6D50ACDCA8B5}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{528AAF34-79F5-4001-8388-15EE72397566}" name="Comment" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{576C1CDD-B32D-452E-A686-0A9E8287AE64}" name="Received" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{1E703319-29F7-467F-B650-6D98BD796EF9}" name="Commenter" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{CE5B06B8-50D2-4760-AD2A-CE34D9D20702}" name="Status" dataDxfId="13">
       <calculatedColumnFormula>$B$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{791C3FB5-006E-4DCD-B4BB-15A239E47851}" name="Notes" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{791C3FB5-006E-4DCD-B4BB-15A239E47851}" name="Notes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3325,13 +3315,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{039687CA-1792-407A-863A-8EE99963BE75}" name="_carb_only_table_05" displayName="_carb_only_table_05" ref="B52:C72" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{039687CA-1792-407A-863A-8EE99963BE75}" name="_carb_only_table_05" displayName="_carb_only_table_05" ref="B52:C72" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B52:B72">
     <sortCondition ref="B52:B72"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7035FEB7-96CB-42A9-8FD7-2933E4AB41E2}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{273C90A5-28FA-4E10-BC32-75317EDBEE89}" name="Column2" headerRowDxfId="9" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{7035FEB7-96CB-42A9-8FD7-2933E4AB41E2}" name="Column1" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{273C90A5-28FA-4E10-BC32-75317EDBEE89}" name="Column2" headerRowDxfId="7" dataDxfId="6">
       <calculatedColumnFormula>IF(_carb_only_table_05[[#This Row],[Column1]]=D52,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3340,13 +3330,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B3E91B4B-D44C-4A3C-90DB-27492D2CD4CC}" name="_carb_only_table_06" displayName="_carb_only_table_06" ref="B76:C85" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B3E91B4B-D44C-4A3C-90DB-27492D2CD4CC}" name="_carb_only_table_06" displayName="_carb_only_table_06" ref="B76:C85" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B76:B85">
     <sortCondition ref="B76:B85"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5DAC4AD-29F0-41E0-9501-DFF489A6FB75}" name="Column1" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{98A9E070-E4AE-440C-9F94-4BB60D2DEE04}" name="Column2" headerRowDxfId="3" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{A5DAC4AD-29F0-41E0-9501-DFF489A6FB75}" name="Column1" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{98A9E070-E4AE-440C-9F94-4BB60D2DEE04}" name="Column2" headerRowDxfId="1" dataDxfId="0">
       <calculatedColumnFormula>IF(_carb_only_table_06[[#This Row],[Column1]]=D76,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3654,399 +3644,401 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="65" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="65" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="4.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="51" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.5">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:5" s="31" customFormat="1">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="2:5" s="31" customFormat="1" ht="51">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="2:5" s="33" customFormat="1" ht="51" x14ac:dyDescent="0.5">
-      <c r="B3" s="35" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" s="31" customFormat="1" ht="51">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="2:5" s="33" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B8" s="41" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="2:5" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="2:5" s="31" customFormat="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="2:5" s="31" customFormat="1"/>
+    <row r="8" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B9" s="44" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B10" s="46" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B11" s="41" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B12" s="41" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B13" s="41" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B13" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B14" s="41" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B15" s="48" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B15" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-    </row>
-    <row r="16" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B16" s="41" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B16" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B17" s="41" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="21" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B21" s="41" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="2:5" s="31" customFormat="1"/>
+    <row r="19" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="2:5" s="31" customFormat="1"/>
+    <row r="21" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B21" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="50">
+      <c r="C21" s="37"/>
+      <c r="D21" s="60">
         <v>153</v>
       </c>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B22" s="41" t="s">
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="50">
+      <c r="C22" s="37"/>
+      <c r="D22" s="60">
         <v>7143</v>
       </c>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="2:5" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B23" s="41" t="s">
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="2:5" s="38" customFormat="1" ht="15">
+      <c r="B23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="52">
+      <c r="C23" s="37"/>
+      <c r="D23" s="61">
         <v>45782.517916666664</v>
       </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B24" s="41" t="s">
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B24" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="50">
+      <c r="C24" s="37"/>
+      <c r="D24" s="60">
         <v>36.076599999999999</v>
       </c>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B25" s="41" t="s">
+      <c r="E24" s="56"/>
+    </row>
+    <row r="25" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B25" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="50">
+      <c r="C25" s="37"/>
+      <c r="D25" s="60">
         <v>-119.44289999999999</v>
       </c>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B26" s="41" t="s">
+      <c r="E25" s="56"/>
+    </row>
+    <row r="26" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="52" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="28" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:5" s="33" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B30" s="53" t="s">
+      <c r="E26" s="56"/>
+    </row>
+    <row r="27" spans="2:5" s="31" customFormat="1"/>
+    <row r="28" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="2:5" s="31" customFormat="1"/>
+    <row r="30" spans="2:5" s="31" customFormat="1" ht="15.4">
+      <c r="B30" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="33" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B31" s="53" t="s">
+    <row r="31" spans="2:5" s="31" customFormat="1" ht="15.4">
+      <c r="B31" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="33" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="2:5" s="31" customFormat="1" ht="15.4">
+      <c r="B32" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="51" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B33" s="54" t="s">
+    <row r="33" spans="2:5" s="42" customFormat="1" ht="15.4">
+      <c r="B33" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="2:5" s="51" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B34" s="54" t="s">
+      <c r="E33" s="64"/>
+    </row>
+    <row r="34" spans="2:5" s="42" customFormat="1" ht="15.4">
+      <c r="B34" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" spans="2:5" s="51" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B35" s="54" t="s">
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="2:5" s="42" customFormat="1" ht="15.4">
+      <c r="B35" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="36" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="37" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-    </row>
-    <row r="38" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="39" spans="2:5" s="51" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B39" s="54" t="s">
+      <c r="E35" s="64"/>
+    </row>
+    <row r="36" spans="2:5" s="31" customFormat="1"/>
+    <row r="37" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="2:5" s="31" customFormat="1"/>
+    <row r="39" spans="2:5" s="42" customFormat="1" ht="30.4">
+      <c r="B39" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="2:5" s="51" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
-      <c r="B40" s="57" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="44"/>
+    </row>
+    <row r="40" spans="2:5" s="42" customFormat="1" ht="45.4">
+      <c r="B40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="66"/>
-    </row>
-    <row r="41" spans="2:5" s="33" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B41" s="57" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="2:5" s="31" customFormat="1" ht="30.4">
+      <c r="B41" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="66"/>
-    </row>
-    <row r="42" spans="2:5" s="51" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="53" t="s">
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="2:5" s="42" customFormat="1" ht="30.75" thickBot="1">
+      <c r="B42" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="66"/>
-    </row>
-    <row r="43" spans="2:5" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="57" t="s">
+      <c r="C42" s="64"/>
+      <c r="D42" s="52"/>
+    </row>
+    <row r="43" spans="2:5" s="42" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B43" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="51" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="57" t="s">
+    <row r="44" spans="2:5" s="42" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B44" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="55"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="51" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="57" t="s">
+    <row r="45" spans="2:5" s="42" customFormat="1" ht="30" thickTop="1" thickBot="1">
+      <c r="B45" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="53"/>
+    </row>
+    <row r="46" spans="2:5" s="42" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B46" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:5" s="51" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="55"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="51" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="49" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="2:5" s="33" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="54"/>
-    </row>
-    <row r="51" spans="2:5" s="51" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="55"/>
+    <row r="47" spans="2:5" s="42" customFormat="1" ht="45.75" thickTop="1">
+      <c r="B47" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="53"/>
+    </row>
+    <row r="48" spans="2:5" s="31" customFormat="1"/>
+    <row r="49" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="2:5" s="31" customFormat="1" ht="15.4" thickBot="1">
+      <c r="B50" s="63"/>
+    </row>
+    <row r="51" spans="2:5" s="42" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="64"/>
       <c r="D51" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="51" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="54" t="s">
+    <row r="52" spans="2:5" s="42" customFormat="1" ht="15.75" thickTop="1">
+      <c r="B52" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="53"/>
+    </row>
+    <row r="53" spans="2:5" s="42" customFormat="1" ht="30.4">
+      <c r="B53" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="52"/>
+    </row>
+    <row r="54" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+    </row>
+    <row r="55" spans="2:5" s="36" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="55"/>
+    </row>
+    <row r="56" spans="2:5" s="31" customFormat="1"/>
+    <row r="57" spans="2:5" s="42" customFormat="1" ht="45.4">
+      <c r="B57" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="67"/>
-    </row>
-    <row r="53" spans="2:5" s="51" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B53" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="66"/>
-    </row>
-    <row r="54" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-    </row>
-    <row r="55" spans="2:5" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
-    </row>
-    <row r="56" spans="2:5" s="33" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="57" spans="2:5" s="51" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
-      <c r="B57" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B58" s="59" t="str">
+    </row>
+    <row r="58" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B58" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B52) &lt;= 60,
   "  •  " &amp; _carb_only!B52,
@@ -4058,11 +4050,11 @@
 )</f>
         <v xml:space="preserve">  •  Solid/dry scrape manure collection</v>
       </c>
-      <c r="C58" s="60"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="28"/>
     </row>
-    <row r="59" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B59" s="59" t="str">
+    <row r="59" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B59" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B53) &lt;= 60,
   "  •  " &amp; _carb_only!B53,
@@ -4074,11 +4066,11 @@
 )</f>
         <v xml:space="preserve">  •  Vacuum manure collection</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="28"/>
     </row>
-    <row r="60" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B60" s="59" t="str">
+    <row r="60" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B60" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B54) &lt;= 60,
   "  •  " &amp; _carb_only!B54,
@@ -4090,11 +4082,11 @@
 )</f>
         <v xml:space="preserve">  •  Liquid/flush manure collection</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="28"/>
     </row>
-    <row r="61" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B61" s="59" t="str">
+    <row r="61" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B61" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B55) &lt;= 60,
   "  •  " &amp; _carb_only!B55,
@@ -4106,11 +4098,11 @@
 )</f>
         <v xml:space="preserve">  •  Pasture</v>
       </c>
-      <c r="C61" s="60"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B62" s="59" t="str">
+    <row r="62" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B62" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B56) &lt;= 60,
   "  •  " &amp; _carb_only!B56,
@@ -4122,11 +4114,11 @@
 )</f>
         <v xml:space="preserve">  •  Dry lot/corral</v>
       </c>
-      <c r="C62" s="60"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="28"/>
     </row>
-    <row r="63" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B63" s="59" t="str">
+    <row r="63" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B63" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B57) &lt;= 60,
   "  •  " &amp; _carb_only!B57,
@@ -4138,11 +4130,11 @@
 )</f>
         <v xml:space="preserve">  •  Solid storage</v>
       </c>
-      <c r="C63" s="60"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="28"/>
     </row>
-    <row r="64" spans="2:5" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B64" s="59" t="str">
+    <row r="64" spans="2:5" s="42" customFormat="1" ht="15">
+      <c r="B64" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B58) &lt;= 60,
   "  •  " &amp; _carb_only!B58,
@@ -4154,11 +4146,11 @@
 )</f>
         <v xml:space="preserve">  •  Solar drying</v>
       </c>
-      <c r="C64" s="60"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="28"/>
     </row>
-    <row r="65" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B65" s="59" t="str">
+    <row r="65" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B65" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B59) &lt;= 60,
   "  •  " &amp; _carb_only!B59,
@@ -4170,11 +4162,11 @@
 )</f>
         <v xml:space="preserve">  •  Composting (aerated, in vessel, windrows)</v>
       </c>
-      <c r="C65" s="60"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="28"/>
     </row>
-    <row r="66" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B66" s="59" t="str">
+    <row r="66" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B66" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B60) &lt;= 60,
   "  •  " &amp; _carb_only!B60,
@@ -4186,11 +4178,11 @@
 )</f>
         <v xml:space="preserve">  •  Compost bedded pack barn</v>
       </c>
-      <c r="C66" s="60"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="28"/>
     </row>
-    <row r="67" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B67" s="59" t="str">
+    <row r="67" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B67" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B61) &lt;= 60,
   "  •  " &amp; _carb_only!B61,
@@ -4202,11 +4194,11 @@
 )</f>
         <v xml:space="preserve">  •  Slatted floor pit storage</v>
       </c>
-      <c r="C67" s="60"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="28"/>
     </row>
-    <row r="68" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B68" s="59" t="str">
+    <row r="68" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B68" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B62) &lt;= 60,
   "  •  " &amp; _carb_only!B62,
@@ -4218,11 +4210,11 @@
 )</f>
         <v xml:space="preserve">  •  Anaerobic Lagoon</v>
       </c>
-      <c r="C68" s="60"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="28"/>
     </row>
-    <row r="69" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B69" s="59" t="str">
+    <row r="69" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B69" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B63) &lt;= 60,
   "  •  " &amp; _carb_only!B63,
@@ -4234,11 +4226,11 @@
 )</f>
         <v xml:space="preserve">  •  Anaerobic digester</v>
       </c>
-      <c r="C69" s="60"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="28"/>
     </row>
-    <row r="70" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B70" s="59" t="str">
+    <row r="70" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B70" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B64) &lt;= 60,
   "  •  " &amp; _carb_only!B64,
@@ -4250,11 +4242,11 @@
 )</f>
         <v xml:space="preserve">  •  Vermifiltration</v>
       </c>
-      <c r="C70" s="60"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="28"/>
     </row>
-    <row r="71" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B71" s="59" t="str">
+    <row r="71" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B71" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B65) &lt;= 60,
   "  •  " &amp; _carb_only!B65,
@@ -4266,11 +4258,11 @@
 )</f>
         <v xml:space="preserve">  •  Liquid/slurry</v>
       </c>
-      <c r="C71" s="60"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="28"/>
     </row>
-    <row r="72" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B72" s="59" t="str">
+    <row r="72" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B72" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B66) &lt;= 60,
   "  •  " &amp; _carb_only!B66,
@@ -4282,11 +4274,11 @@
 )</f>
         <v xml:space="preserve">  •  Mechanical separator (screens, centrifuge, press)</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="28"/>
     </row>
-    <row r="73" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B73" s="59" t="str">
+    <row r="73" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B73" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B67) &lt;= 60,
   "  •  " &amp; _carb_only!B67,
@@ -4298,11 +4290,11 @@
 )</f>
         <v xml:space="preserve">  •  Gravity-based separator (settling basin, sand lane)</v>
       </c>
-      <c r="C73" s="60"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B74" s="59" t="str">
+    <row r="74" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B74" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B68) &lt;= 60,
   "  •  " &amp; _carb_only!B68,
@@ -4314,11 +4306,11 @@
 )</f>
         <v xml:space="preserve">  •  Weeping wall</v>
       </c>
-      <c r="C74" s="60"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B75" s="59" t="str">
+    <row r="75" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B75" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B69) &lt;= 60,
   "  •  " &amp; _carb_only!B69,
@@ -4330,11 +4322,11 @@
 )</f>
         <v xml:space="preserve">  •  Flocculation</v>
       </c>
-      <c r="C75" s="60"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="28"/>
     </row>
-    <row r="76" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B76" s="59" t="str">
+    <row r="76" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B76" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B70) &lt;= 60,
   "  •  " &amp; _carb_only!B70,
@@ -4346,11 +4338,11 @@
 )</f>
         <v xml:space="preserve">  •  Daily spread</v>
       </c>
-      <c r="C76" s="60"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="28"/>
     </row>
-    <row r="77" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B77" s="59" t="str">
+    <row r="77" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B77" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B71) &lt;= 60,
   "  •  " &amp; _carb_only!B71,
@@ -4362,11 +4354,11 @@
 )</f>
         <v xml:space="preserve">  •  Land application (flood)</v>
       </c>
-      <c r="C77" s="60"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="28"/>
     </row>
-    <row r="78" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B78" s="59" t="str">
+    <row r="78" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B78" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B72) &lt;= 60,
   "  •  " &amp; _carb_only!B72,
@@ -4378,20 +4370,20 @@
 )</f>
         <v xml:space="preserve">  •  Land application (subsurface drip)</v>
       </c>
-      <c r="C78" s="60"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="28"/>
     </row>
-    <row r="79" spans="2:7" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B80" s="59" t="str">
+    <row r="79" spans="2:7" s="42" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B79" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="64"/>
+      <c r="D79" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" s="42" customFormat="1" ht="30">
+      <c r="B80" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B76) &lt;= 60,
   "  •  " &amp; _carb_only!B76,
@@ -4404,12 +4396,12 @@
         <v xml:space="preserve">  •  Biogas conditioning (e.g., hydrogen sulfide, moisture,
      particulate removal)</v>
       </c>
-      <c r="C80" s="60"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="28"/>
-      <c r="G80" s="61"/>
-    </row>
-    <row r="81" spans="2:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B81" s="59" t="str">
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="2:7" s="42" customFormat="1" ht="30">
+      <c r="B81" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B77) &lt;= 60,
   "  •  " &amp; _carb_only!B77,
@@ -4422,12 +4414,12 @@
         <v xml:space="preserve">  •  Biogas moving and handling equipement (e.g., blower,
      compressor, low pressure gas pipelines)</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="28"/>
-      <c r="G81" s="61"/>
-    </row>
-    <row r="82" spans="2:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B82" s="59" t="str">
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="2:7" s="42" customFormat="1" ht="45">
+      <c r="B82" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B78) &lt;= 60,
   "  •  " &amp; _carb_only!B78,
@@ -4440,12 +4432,12 @@
         <v xml:space="preserve">  •  Biomethane upgrading (e.g., membrane or other form of CO2
      removal)</v>
       </c>
-      <c r="C82" s="60"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="28"/>
-      <c r="G82" s="61"/>
-    </row>
-    <row r="83" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B83" s="59" t="str">
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B83" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B79) &lt;= 60,
   "  •  " &amp; _carb_only!B79,
@@ -4457,12 +4449,12 @@
 )</f>
         <v xml:space="preserve">  •  Covered lagoon anaerobic digester</v>
       </c>
-      <c r="C83" s="60"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="28"/>
-      <c r="G83" s="61"/>
-    </row>
-    <row r="84" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B84" s="59" t="str">
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B84" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B80) &lt;= 60,
   "  •  " &amp; _carb_only!B80,
@@ -4474,12 +4466,12 @@
 )</f>
         <v xml:space="preserve">  •  In-vessel anaerobic digester</v>
       </c>
-      <c r="C84" s="60"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="28"/>
-      <c r="G84" s="61"/>
-    </row>
-    <row r="85" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B85" s="59" t="str">
+      <c r="G84" s="47"/>
+    </row>
+    <row r="85" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B85" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B81) &lt;= 60,
   "  •  " &amp; _carb_only!B81,
@@ -4491,12 +4483,12 @@
 )</f>
         <v xml:space="preserve">  •  Electricity generation or other combustion equipment</v>
       </c>
-      <c r="C85" s="60"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="28"/>
-      <c r="G85" s="61"/>
-    </row>
-    <row r="86" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B86" s="59" t="str">
+      <c r="G85" s="47"/>
+    </row>
+    <row r="86" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B86" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B82) &lt;= 60,
   "  •  " &amp; _carb_only!B82,
@@ -4508,12 +4500,12 @@
 )</f>
         <v xml:space="preserve">  •  Heating/process fuel equipment</v>
       </c>
-      <c r="C86" s="60"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="28"/>
-      <c r="G86" s="61"/>
-    </row>
-    <row r="87" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B87" s="59" t="str">
+      <c r="G86" s="47"/>
+    </row>
+    <row r="87" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B87" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B83) &lt;= 60,
   "  •  " &amp; _carb_only!B83,
@@ -4525,12 +4517,12 @@
 )</f>
         <v xml:space="preserve">  •  Fuel cells</v>
       </c>
-      <c r="C87" s="60"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="28"/>
-      <c r="G87" s="61"/>
-    </row>
-    <row r="88" spans="2:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="B88" s="59" t="str">
+      <c r="G87" s="47"/>
+    </row>
+    <row r="88" spans="2:7" s="42" customFormat="1" ht="30">
+      <c r="B88" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B84) &lt;= 60,
   "  •  " &amp; _carb_only!B84,
@@ -4543,12 +4535,12 @@
         <v xml:space="preserve">  •  Common carrier gas pipeline (Interconnection point of
      receipt)</v>
       </c>
-      <c r="C88" s="60"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="28"/>
-      <c r="G88" s="61"/>
-    </row>
-    <row r="89" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B89" s="59" t="str">
+      <c r="G88" s="47"/>
+    </row>
+    <row r="89" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B89" s="65" t="str">
         <f>IF(
   LEN(_carb_only!B85) &lt;= 60,
   "  •  " &amp; _carb_only!B85,
@@ -4560,46 +4552,46 @@
 )</f>
         <v xml:space="preserve">  •  Onsite fuel use or dispensing</v>
       </c>
-      <c r="C89" s="60"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="28"/>
-      <c r="G89" s="61"/>
-    </row>
-    <row r="90" spans="2:7" s="51" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B90" s="57" t="s">
+      <c r="G89" s="47"/>
+    </row>
+    <row r="90" spans="2:7" s="42" customFormat="1" ht="30">
+      <c r="B90" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="52"/>
+    </row>
+    <row r="91" spans="2:7" s="42" customFormat="1" ht="45.4">
+      <c r="B91" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="52"/>
+    </row>
+    <row r="92" spans="2:7" s="42" customFormat="1" ht="45.4">
+      <c r="B92" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="52"/>
+    </row>
+    <row r="93" spans="2:7" s="42" customFormat="1" ht="30.4">
+      <c r="B93" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="66"/>
-    </row>
-    <row r="91" spans="2:7" s="51" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
-      <c r="B91" s="57" t="s">
+      <c r="D93" s="52"/>
+    </row>
+    <row r="94" spans="2:7" s="42" customFormat="1" ht="15">
+      <c r="B94" s="64"/>
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="2:7" s="49" customFormat="1" ht="39.950000000000003" customHeight="1"/>
+    <row r="96" spans="2:7" s="49" customFormat="1"/>
+    <row r="97" spans="2:4" s="42" customFormat="1" ht="45">
+      <c r="B97" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="66"/>
-    </row>
-    <row r="92" spans="2:7" s="51" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
-      <c r="B92" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="66"/>
-    </row>
-    <row r="93" spans="2:7" s="51" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B93" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="66"/>
-    </row>
-    <row r="94" spans="2:7" s="51" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B94" s="55"/>
-      <c r="D94" s="62"/>
-    </row>
-    <row r="95" spans="2:7" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="96" spans="2:7" s="63" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="97" spans="2:4" s="51" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B97" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="64"/>
-      <c r="D97" s="66"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="52"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7wwt+VeQ+ZExiZ/3WnSlPJcTxF5RwF4WgkwAY4zd69GuCx5FERlgeECk503VG5tGXf/58pouVa5dBdCUs+O5yw==" saltValue="SbORWxYlLhME0zh5gjBJ7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -4648,162 +4640,162 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.703125" customWidth="1"/>
-    <col min="4" max="4" width="80.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B12" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C12" s="29">
         <v>45819</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="29">
         <v>45838</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="29">
         <v>45841</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="29">
         <v>45846</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -4826,109 +4818,109 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B7" s="6" t="s">
+    <row r="10" spans="1:11" s="10" customFormat="1">
+      <c r="B10" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
+      <c r="C10" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="14"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="28.7">
       <c r="B11" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="14"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="28.7">
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="14"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" s="10" customFormat="1">
       <c r="B13" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11">
       <c r="B16" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -4936,336 +4928,336 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:11">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:11" s="10" customFormat="1" ht="42.95">
       <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D19" s="14">
         <v>45818</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="10" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="10" customFormat="1" ht="86.1">
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D20" s="14">
         <v>45818</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="10" customFormat="1" ht="28.7">
       <c r="B21" s="10">
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="14">
         <v>45818</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="10" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="2:11" s="10" customFormat="1" ht="271.5" customHeight="1">
       <c r="B22" s="10">
         <v>4</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" s="14">
         <v>45838</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="10" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="10" customFormat="1" ht="157.69999999999999">
       <c r="B23" s="10">
         <v>5</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D23" s="14">
         <v>45838</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:11" s="10" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:11" s="10" customFormat="1" ht="198.75" customHeight="1">
       <c r="B24" s="10">
         <v>6</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D24" s="14">
         <v>45838</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:11" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:11" s="10" customFormat="1" ht="114.75">
       <c r="B25" s="10">
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" s="14">
         <v>45838</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="10" customFormat="1" ht="57" customHeight="1">
       <c r="B26" s="10">
         <v>8</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D26" s="14">
         <v>45838</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:11" s="10" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" s="10" customFormat="1" ht="300.95">
       <c r="B27" s="10">
         <v>9</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D27" s="14">
         <v>45838</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="10" customFormat="1" ht="57.4">
       <c r="B28" s="10">
         <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="14">
         <v>45838</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="10" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="10" customFormat="1" ht="100.35">
       <c r="B29" s="10">
         <v>11</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29" s="14">
         <v>45838</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:11" s="10" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" s="10" customFormat="1" ht="86.1">
       <c r="B30" s="10">
         <v>12</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" s="14">
         <v>45838</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="10" customFormat="1" ht="71.650000000000006">
       <c r="B31" s="10">
         <v>13</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D31" s="14">
         <v>45841</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:11" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:11" s="10" customFormat="1" ht="28.7">
       <c r="B32" s="10">
         <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" s="14">
         <v>45841</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" ht="28.7">
       <c r="B33" s="10">
         <v>15</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D33" s="14">
         <v>45846</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" ht="28.7">
       <c r="B34" s="10">
         <v>16</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="14">
         <v>45846</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -5274,7 +5266,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -5283,7 +5275,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -5292,7 +5284,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -5301,7 +5293,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -5310,7 +5302,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -5319,7 +5311,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -5328,7 +5320,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -5337,7 +5329,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -5346,7 +5338,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -5355,7 +5347,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -5364,7 +5356,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -5373,7 +5365,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -5382,7 +5374,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -5391,7 +5383,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" s="10" customFormat="1">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -5400,7 +5392,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" s="10" customFormat="1">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -5409,7 +5401,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" s="10" customFormat="1">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -5418,7 +5410,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" s="10" customFormat="1">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -5427,7 +5419,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" s="10" customFormat="1">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -5436,7 +5428,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" s="10" customFormat="1">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -5445,7 +5437,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" s="10" customFormat="1">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -5454,7 +5446,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" s="10" customFormat="1">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -5463,7 +5455,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" s="10" customFormat="1">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -5472,7 +5464,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" s="10" customFormat="1">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -5481,7 +5473,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" s="10" customFormat="1">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -5490,7 +5482,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" s="10" customFormat="1">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -5499,7 +5491,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" s="10" customFormat="1">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -5508,7 +5500,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" s="10" customFormat="1">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -5517,7 +5509,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" s="10" customFormat="1">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -5526,7 +5518,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:7" s="10" customFormat="1">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -5535,7 +5527,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -5544,7 +5536,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -5553,7 +5545,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -5562,7 +5554,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -5571,7 +5563,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -5580,7 +5572,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -5589,7 +5581,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -5598,7 +5590,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -5607,7 +5599,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -5616,7 +5608,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -5625,7 +5617,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -5634,7 +5626,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -5643,7 +5635,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -5652,7 +5644,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -5661,7 +5653,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -5670,7 +5662,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -5679,7 +5671,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -5688,7 +5680,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -5697,7 +5689,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -5706,7 +5698,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" s="18" customFormat="1">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -5716,7 +5708,7 @@
       <c r="F84" s="13"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -5725,7 +5717,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -5734,7 +5726,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -5743,7 +5735,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -5752,7 +5744,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -5761,7 +5753,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -5770,7 +5762,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -5779,7 +5771,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -5788,7 +5780,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -5797,7 +5789,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -5806,7 +5798,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -5815,7 +5807,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -5824,7 +5816,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -5833,7 +5825,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -5842,7 +5834,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -5851,7 +5843,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -5860,7 +5852,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -5869,7 +5861,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -5878,7 +5870,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -5887,7 +5879,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -5896,7 +5888,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" s="18" customFormat="1">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -5906,7 +5898,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" s="18" customFormat="1">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -5916,7 +5908,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" s="18" customFormat="1">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -5926,7 +5918,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" s="18" customFormat="1">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -5936,7 +5928,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" s="18" customFormat="1">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -5946,7 +5938,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" s="18" customFormat="1">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -5956,7 +5948,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -5965,7 +5957,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" s="18" customFormat="1">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -5975,7 +5967,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" s="18" customFormat="1">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -5985,7 +5977,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" s="18" customFormat="1">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -5995,7 +5987,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" s="18" customFormat="1">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -6005,7 +5997,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" s="18" customFormat="1">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -6015,7 +6007,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" s="18" customFormat="1">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -6025,7 +6017,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" s="18" customFormat="1">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -6037,12 +6029,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F18 F51:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6067,27 +6059,27 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -6102,12 +6094,12 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -6121,12 +6113,12 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -6140,7 +6132,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -6153,158 +6145,158 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="10" spans="1:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="22" customFormat="1" ht="20.65">
       <c r="B10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" t="s">
         <v>125</v>
       </c>
-      <c r="D10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B14" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B17" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B18" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B20" s="6" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B22" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B23" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B24" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B27" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B30" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B31" t="s">
+    <row r="33" spans="2:17">
+      <c r="B33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B32" t="s">
+    <row r="35" spans="2:17">
+      <c r="B35" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B33" t="s">
+    <row r="37" spans="2:17">
+      <c r="B37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B35" s="6" t="s">
+    <row r="38" spans="2:17">
+      <c r="B38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B37" t="s">
+    <row r="39" spans="2:17">
+      <c r="B39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B38" t="s">
+    <row r="40" spans="2:17">
+      <c r="B40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B39" t="s">
+    <row r="41" spans="2:17">
+      <c r="B41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B40" t="s">
+    <row r="42" spans="2:17">
+      <c r="B42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B41" t="s">
+    <row r="43" spans="2:17">
+      <c r="B43" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B43" t="s">
+    <row r="45" spans="2:17">
+      <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B45" s="6" t="s">
+    <row r="47" spans="2:17">
+      <c r="B47" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B47" t="s">
-        <v>44</v>
       </c>
       <c r="C47" s="3"/>
       <c r="E47" s="3"/>
@@ -6317,7 +6309,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17">
       <c r="B48" t="s">
         <v>152</v>
       </c>
@@ -6331,15 +6323,15 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:4">
       <c r="B50" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:4">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>154</v>
       </c>
@@ -6351,7 +6343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>155</v>
       </c>
@@ -6363,7 +6355,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>156</v>
       </c>
@@ -6375,7 +6367,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>157</v>
       </c>
@@ -6387,7 +6379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>158</v>
       </c>
@@ -6399,7 +6391,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>159</v>
       </c>
@@ -6411,7 +6403,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>160</v>
       </c>
@@ -6423,7 +6415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:4">
       <c r="B59" t="s">
         <v>161</v>
       </c>
@@ -6435,7 +6427,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:4">
       <c r="B60" t="s">
         <v>162</v>
       </c>
@@ -6447,7 +6439,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6451,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>164</v>
       </c>
@@ -6471,7 +6463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>165</v>
       </c>
@@ -6483,7 +6475,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>166</v>
       </c>
@@ -6495,7 +6487,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17">
       <c r="B65" t="s">
         <v>167</v>
       </c>
@@ -6507,7 +6499,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17">
       <c r="B66" t="s">
         <v>168</v>
       </c>
@@ -6519,7 +6511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17">
       <c r="B67" t="s">
         <v>169</v>
       </c>
@@ -6531,7 +6523,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17">
       <c r="B68" t="s">
         <v>170</v>
       </c>
@@ -6543,7 +6535,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17">
       <c r="B69" t="s">
         <v>171</v>
       </c>
@@ -6555,7 +6547,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17">
       <c r="B70" t="s">
         <v>172</v>
       </c>
@@ -6567,7 +6559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17">
       <c r="B71" t="s">
         <v>173</v>
       </c>
@@ -6579,7 +6571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17">
       <c r="B72" t="s">
         <v>174</v>
       </c>
@@ -6591,18 +6583,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17">
       <c r="B74" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17">
       <c r="B76" t="s">
         <v>176</v>
       </c>
@@ -6618,7 +6610,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17">
       <c r="B77" t="s">
         <v>177</v>
       </c>
@@ -6634,7 +6626,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17">
       <c r="B78" t="s">
         <v>178</v>
       </c>
@@ -6650,7 +6642,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:17">
       <c r="B79" t="s">
         <v>179</v>
       </c>
@@ -6666,7 +6658,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -6682,7 +6674,7 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17">
       <c r="B81" t="s">
         <v>181</v>
       </c>
@@ -6698,7 +6690,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17">
       <c r="B82" t="s">
         <v>182</v>
       </c>
@@ -6714,7 +6706,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17">
       <c r="B83" t="s">
         <v>183</v>
       </c>
@@ -6730,7 +6722,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17">
       <c r="B84" t="s">
         <v>184</v>
       </c>
@@ -6746,7 +6738,7 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17">
       <c r="B85" t="s">
         <v>185</v>
       </c>
@@ -6762,22 +6754,22 @@
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17">
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B88" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D88"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17">
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:17">
       <c r="B90" s="7" t="s">
         <v>187</v>
       </c>
@@ -6785,13 +6777,13 @@
       <c r="F90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:17">
       <c r="B91" s="6"/>
       <c r="E91" s="3"/>
       <c r="F91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17">
       <c r="B92" t="s">
         <v>36</v>
       </c>
@@ -6799,7 +6791,7 @@
       <c r="F92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:17">
       <c r="B93" t="str" cm="1">
         <f t="array" ref="B93:B97">_carb_only_table_01[]</f>
         <v>No leak detected</v>
@@ -6808,7 +6800,7 @@
       <c r="F93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:17">
       <c r="B94" t="str">
         <v>An intentional or allowable vent (i.e. the operator was aware of, and/or would not repair)</v>
       </c>
@@ -6816,7 +6808,7 @@
       <c r="F94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:17">
       <c r="B95" t="str">
         <v>Due to a temporary activity (i.e. would be resolved without corrective action when the activity is completed)</v>
       </c>
@@ -6824,7 +6816,7 @@
       <c r="F95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:17">
       <c r="B96" t="str">
         <v>Operator was aware of the leak prior to receiving the CARB plume notification and/or repairs were in progress</v>
       </c>
@@ -6832,7 +6824,7 @@
       <c r="F96"/>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:17">
       <c r="B97" t="str">
         <v>An unintentional leak (i.e. the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -6840,23 +6832,23 @@
       <c r="F97"/>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:17">
       <c r="E98" s="3"/>
       <c r="F98"/>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B99" s="22" t="s">
         <v>188</v>
       </c>
       <c r="D99"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:17">
       <c r="E100" s="3"/>
       <c r="F100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:17">
       <c r="B101" s="7" t="s">
         <v>187</v>
       </c>
@@ -6864,90 +6856,90 @@
       <c r="F101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:17">
       <c r="B102" s="6"/>
       <c r="E102" s="3"/>
       <c r="F102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:17">
       <c r="B103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:17">
       <c r="B104" t="str" cm="1">
         <f t="array" ref="B104:B115">_carb_only_table_02[]</f>
         <v>Animal housing/barn/corral/lot</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:17">
       <c r="B105" t="str">
         <v>Biogas conditioning/upgrading equipment</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:17">
       <c r="B106" t="str">
         <v>Biogas moving/handling equipment</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:17">
       <c r="B107" t="str">
         <v>Digester component (other)</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:17">
       <c r="B108" t="str">
         <v>Digester cover</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:17">
       <c r="B109" t="str">
         <v>Effluent pond</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:17">
       <c r="B110" t="str">
         <v>Interconnection/pipeline</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:17">
       <c r="B111" t="str">
         <v>Manure collection pit</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:17">
       <c r="B112" t="str">
         <v>Manure separator</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:17">
       <c r="B113" t="str">
         <v>Open lagoon</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:17">
       <c r="B114" t="str">
         <v xml:space="preserve">Other </v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:17">
       <c r="B115" t="str">
         <v>Stacking slab/stockpile/other manure storage</v>
       </c>
     </row>
-    <row r="118" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B118" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D118"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:17">
       <c r="E119" s="3"/>
       <c r="F119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:17">
       <c r="B120" s="7" t="s">
         <v>187</v>
       </c>
@@ -6955,65 +6947,65 @@
       <c r="F120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:17">
       <c r="B121" s="6"/>
       <c r="E121" s="3"/>
       <c r="F121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:17">
       <c r="B122" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:17">
       <c r="B123" t="str" cm="1">
         <f t="array" ref="B123:B129">_carb_only_table_03[]</f>
         <v>Construction activity</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:17">
       <c r="B124" t="str">
         <v>Damaged/broken component (e.g. tear in digester cover, loose flange/port/seal)</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:17">
       <c r="B125" t="str">
         <v>Maintenance/repair/testing activity</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:17">
       <c r="B126" t="str">
         <v>Manure management activity</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:17">
       <c r="B127" t="str">
         <v>Other</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:17">
       <c r="B128" t="str">
         <v>Venting-emergency/temporary</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:17">
       <c r="B129" t="str">
         <v>Venting-intentional/routine</v>
       </c>
     </row>
-    <row r="132" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B132" s="22" t="s">
         <v>190</v>
       </c>
       <c r="D132"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:17">
       <c r="E133" s="3"/>
       <c r="F133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:17">
       <c r="B134" s="7" t="s">
         <v>187</v>
       </c>
@@ -7021,40 +7013,40 @@
       <c r="F134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:17">
       <c r="B135" s="6"/>
       <c r="E135" s="3"/>
       <c r="F135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:17">
       <c r="B136" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:17">
       <c r="B137" t="str" cm="1">
         <f t="array" ref="B137:B138">_carb_only_table_04[]</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:17">
       <c r="B138" t="str">
         <v>No</v>
       </c>
     </row>
-    <row r="141" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B141" s="22" t="s">
         <v>191</v>
       </c>
       <c r="D141"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:17">
       <c r="E142" s="3"/>
       <c r="F142"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:17">
       <c r="B143" s="7" t="s">
         <v>187</v>
       </c>
@@ -7062,18 +7054,18 @@
       <c r="F143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:17">
       <c r="B144" s="6"/>
       <c r="E144" s="3"/>
       <c r="F144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:3">
       <c r="B145" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:3">
       <c r="B146" t="str" cm="1">
         <f t="array" ref="B146:C166">_carb_only_table_05[]</f>
         <v>Solid/dry scrape manure collection</v>
@@ -7082,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:3">
       <c r="B147" t="str">
         <v>Vacuum manure collection</v>
       </c>
@@ -7090,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:3">
       <c r="B148" t="str">
         <v>Liquid/flush manure collection</v>
       </c>
@@ -7098,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:3">
       <c r="B149" t="str">
         <v>Pasture</v>
       </c>
@@ -7106,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:3">
       <c r="B150" t="str">
         <v>Dry lot/corral</v>
       </c>
@@ -7114,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:3">
       <c r="B151" t="str">
         <v>Solid storage</v>
       </c>
@@ -7122,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:3">
       <c r="B152" t="str">
         <v>Solar drying</v>
       </c>
@@ -7130,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:3">
       <c r="B153" t="str">
         <v>Composting (aerated, in vessel, windrows)</v>
       </c>
@@ -7138,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:3">
       <c r="B154" t="str">
         <v>Compost bedded pack barn</v>
       </c>
@@ -7146,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:3">
       <c r="B155" t="str">
         <v>Slatted floor pit storage</v>
       </c>
@@ -7154,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:3">
       <c r="B156" t="str">
         <v>Anaerobic Lagoon</v>
       </c>
@@ -7162,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:3">
       <c r="B157" t="str">
         <v>Anaerobic digester</v>
       </c>
@@ -7170,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:3">
       <c r="B158" t="str">
         <v>Vermifiltration</v>
       </c>
@@ -7178,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:3">
       <c r="B159" t="str">
         <v>Liquid/slurry</v>
       </c>
@@ -7186,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:3">
       <c r="B160" t="str">
         <v>Mechanical separator (screens, centrifuge, press)</v>
       </c>
@@ -7194,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:3">
       <c r="B161" t="str">
         <v>Gravity-based separator (settling basin, sand lane)</v>
       </c>
@@ -7202,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:3">
       <c r="B162" t="str">
         <v>Weeping wall</v>
       </c>
@@ -7210,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:3">
       <c r="B163" t="str">
         <v>Flocculation</v>
       </c>
@@ -7218,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:3">
       <c r="B164" t="str">
         <v>Daily spread</v>
       </c>
@@ -7226,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:3">
       <c r="B165" t="str">
         <v>Land application (flood)</v>
       </c>
@@ -7234,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:3">
       <c r="B166" t="str">
         <v>Land application (subsurface drip)</v>
       </c>
@@ -7242,18 +7234,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:17" s="22" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="180" spans="2:17" s="22" customFormat="1" ht="20.65">
       <c r="B180" s="22" t="s">
         <v>192</v>
       </c>
       <c r="D180"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:17">
       <c r="E181" s="3"/>
       <c r="F181"/>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:17">
       <c r="B182" s="7" t="s">
         <v>187</v>
       </c>
@@ -7261,18 +7253,18 @@
       <c r="F182"/>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:17">
       <c r="B183" s="6"/>
       <c r="E183" s="3"/>
       <c r="F183"/>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:17">
       <c r="B184" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:17">
       <c r="B185" t="str" cm="1">
         <f t="array" ref="B185:C194">_carb_only_table_06[]</f>
         <v>Biogas conditioning (e.g., hydrogen sulfide, moisture, particulate removal)</v>
@@ -7281,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:17">
       <c r="B186" t="str">
         <v>Biogas moving and handling equipement (e.g., blower, compressor, low pressure gas pipelines)</v>
       </c>
@@ -7289,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:17">
       <c r="B187" t="str">
         <v>Biomethane upgrading (e.g., membrane or other form of CO2 removal)</v>
       </c>
@@ -7297,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:17">
       <c r="B188" t="str">
         <v>Covered lagoon anaerobic digester</v>
       </c>
@@ -7305,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:17">
       <c r="B189" t="str">
         <v>In-vessel anaerobic digester</v>
       </c>
@@ -7313,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:17">
       <c r="B190" t="str">
         <v>Electricity generation or other combustion equipment</v>
       </c>
@@ -7321,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="191" spans="2:17">
       <c r="B191" t="str">
         <v>Heating/process fuel equipment</v>
       </c>
@@ -7329,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:17">
       <c r="B192" t="str">
         <v>Fuel cells</v>
       </c>
@@ -7337,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:3">
       <c r="B193" t="str">
         <v>Common carrier gas pipeline (Interconnection point of receipt)</v>
       </c>
@@ -7345,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:3">
       <c r="B194" t="str">
         <v>Onsite fuel use or dispensing</v>
       </c>
@@ -7379,52 +7371,52 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.65">
       <c r="B14" s="11" t="s">
         <v>198</v>
       </c>
@@ -7433,7 +7425,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>200</v>
       </c>
@@ -7455,56 +7447,56 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" s="6" customFormat="1"/>
+    <row r="10" spans="1:6" s="6" customFormat="1"/>
+    <row r="11" spans="1:6" s="6" customFormat="1"/>
+    <row r="12" spans="1:6" s="6" customFormat="1"/>
+    <row r="13" spans="1:6" s="6" customFormat="1"/>
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="20.65">
       <c r="B14" s="11" t="s">
         <v>205</v>
       </c>
@@ -7513,7 +7505,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>207</v>
       </c>
@@ -7521,7 +7513,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>209</v>
       </c>
@@ -7544,25 +7536,25 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.29296875" customWidth="1"/>
-    <col min="4" max="4" width="51.87890625" customWidth="1"/>
-    <col min="5" max="5" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.65">
       <c r="B2" s="5" t="s">
         <v>211</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>212</v>
@@ -7570,26 +7562,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="20.65">
       <c r="B10" s="11" t="s">
         <v>198</v>
       </c>
@@ -7606,7 +7598,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>200</v>
       </c>
@@ -7623,7 +7615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>200</v>
       </c>
@@ -7637,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>200</v>
       </c>
@@ -7651,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>200</v>
       </c>
@@ -7665,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>200</v>
       </c>
@@ -7679,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -7693,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>200</v>
       </c>
@@ -7707,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>200</v>
       </c>
@@ -7721,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>200</v>
       </c>
@@ -7735,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>200</v>
       </c>
@@ -7749,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>200</v>
       </c>
@@ -7763,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>200</v>
       </c>
@@ -7777,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>200</v>
       </c>
@@ -7791,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>200</v>
       </c>
@@ -7805,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>200</v>
       </c>
@@ -7819,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>200</v>
       </c>
@@ -7836,7 +7828,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>200</v>
       </c>
@@ -7853,7 +7845,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>200</v>
       </c>
@@ -7870,7 +7862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>200</v>
       </c>
@@ -7887,7 +7879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>200</v>
       </c>
@@ -7904,7 +7896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>200</v>
       </c>
@@ -7918,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>200</v>
       </c>
@@ -7935,7 +7927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>200</v>
       </c>
@@ -7949,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>200</v>
       </c>
@@ -7966,7 +7958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>200</v>
       </c>
@@ -7983,7 +7975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>200</v>
       </c>
@@ -8000,7 +7992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>200</v>
       </c>
@@ -8017,7 +8009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>200</v>
       </c>
@@ -8034,7 +8026,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>200</v>
       </c>
@@ -8048,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>200</v>
       </c>
@@ -8062,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>200</v>
       </c>
@@ -8076,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>200</v>
       </c>
@@ -8093,7 +8085,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>200</v>
       </c>
@@ -8110,7 +8102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
         <v>200</v>
       </c>
@@ -8127,7 +8119,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>200</v>
       </c>
@@ -8141,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>200</v>
       </c>
@@ -8158,7 +8150,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>200</v>
       </c>
@@ -8172,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>200</v>
       </c>
@@ -8186,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -8200,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>200</v>
       </c>
@@ -8214,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>200</v>
       </c>
@@ -8228,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>200</v>
       </c>
@@ -8242,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>200</v>
       </c>
@@ -8256,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>200</v>
       </c>
@@ -8270,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>200</v>
       </c>
@@ -8287,7 +8279,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
         <v>200</v>
       </c>
@@ -8301,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>200</v>
       </c>
@@ -8315,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
         <v>200</v>
       </c>
@@ -8329,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>200</v>
       </c>
@@ -8343,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>200</v>
       </c>
@@ -8360,7 +8352,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>200</v>
       </c>
@@ -8377,7 +8369,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>200</v>
       </c>
@@ -8394,7 +8386,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:6">
       <c r="B63" t="s">
         <v>200</v>
       </c>
@@ -8408,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>200</v>
       </c>
@@ -8422,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
         <v>200</v>
       </c>
@@ -8436,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
         <v>200</v>
       </c>
@@ -8450,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
         <v>200</v>
       </c>
@@ -8464,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
         <v>200</v>
       </c>
@@ -8481,7 +8473,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>200</v>
       </c>
@@ -8495,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
         <v>200</v>
       </c>
@@ -8509,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:6">
       <c r="B71" t="s">
         <v>200</v>
       </c>
@@ -8534,12 +8526,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8778,52 +8772,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
